--- a/20 開発資料/05.改修管理/040_改修管理_SAP用CSV作成.xlsx
+++ b/20 開発資料/05.改修管理/040_改修管理_SAP用CSV作成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-165" windowWidth="20445" windowHeight="4380" tabRatio="886" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="-165" windowWidth="20445" windowHeight="4380" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="ＳＡＰ用ＣＳＶ作成" sheetId="10" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="175">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -874,14 +874,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>NZMi0015(基本情報)
-Field10 [Internal order(課税)]
-OR
-NZMi0014(交通宿泊手配)
-Field30 [Internal Order]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>精算金額入力画面
 [支払番号]</t>
     <rPh sb="10" eb="12">
@@ -1565,6 +1557,46 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Null
+(2014/01/16 佐伯様より依頼により変更)</t>
+    <rPh sb="17" eb="19">
+      <t>サエキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2014/01/16 佐伯様より問合せ。
+作業としては保留。
+２．課税金額について、慰労会の会場費など慰労会費用のみを分けてSAP用データを作成しinternal orderを抜いて頂くことはどのくらいインパクトがあるか影響を教えていただけないでしょうか。
+稼働後のエンハンスとして検討中です。
+</t>
+    <rPh sb="11" eb="13">
+      <t>サエキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホリュウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2159,7 +2191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2336,6 +2368,66 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2372,57 +2464,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2435,14 +2476,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3119,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9:AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3130,246 +3165,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="71" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="68" t="s">
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68" t="s">
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68" t="s">
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68" t="s">
+      <c r="AS1" s="88"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="88"/>
+      <c r="AW1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="88"/>
+      <c r="AZ1" s="88"/>
+      <c r="BA1" s="88"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="70">
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="90">
         <v>41611</v>
       </c>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="68" t="s">
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="88"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="88"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -3396,68 +3431,68 @@
       <c r="A6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80" t="s">
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="80"/>
-      <c r="AN6" s="80"/>
-      <c r="AO6" s="80"/>
-      <c r="AP6" s="80"/>
-      <c r="AQ6" s="80"/>
-      <c r="AR6" s="80"/>
-      <c r="AS6" s="80"/>
-      <c r="AT6" s="80"/>
-      <c r="AU6" s="80"/>
-      <c r="AV6" s="80"/>
-      <c r="AW6" s="81" t="s">
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="85"/>
+      <c r="AQ6" s="85"/>
+      <c r="AR6" s="85"/>
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="85"/>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="85"/>
+      <c r="AW6" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="AX6" s="81"/>
-      <c r="AY6" s="81"/>
-      <c r="AZ6" s="81"/>
-      <c r="BA6" s="82"/>
+      <c r="AX6" s="86"/>
+      <c r="AY6" s="86"/>
+      <c r="AZ6" s="86"/>
+      <c r="BA6" s="87"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -3469,241 +3504,243 @@
       <c r="A7" s="61">
         <v>1</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="90"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="80"/>
+      <c r="AX7" s="80"/>
+      <c r="AY7" s="80"/>
+      <c r="AZ7" s="80"/>
+      <c r="BA7" s="81"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="37.5" customHeight="1">
       <c r="A8" s="63">
         <v>2</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83" t="s">
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="83"/>
-      <c r="AT8" s="83"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
-      <c r="BA8" s="86"/>
-    </row>
-    <row r="9" spans="1:59" s="3" customFormat="1" ht="31.5" customHeight="1">
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="84"/>
+    </row>
+    <row r="9" spans="1:59" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A9" s="63">
         <v>3</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="95"/>
-      <c r="AX9" s="95"/>
-      <c r="AY9" s="95"/>
-      <c r="AZ9" s="95"/>
-      <c r="BA9" s="96"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="73"/>
     </row>
     <row r="10" spans="1:59" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="A10" s="64">
         <v>4</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="94"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="77"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1"/>
     <row r="12" spans="1:59" s="3" customFormat="1"/>
@@ -3714,31 +3751,6 @@
     <row r="17" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -3752,6 +3764,31 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -3793,7 +3830,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25">
@@ -3804,7 +3841,7 @@
     </row>
     <row r="4" spans="1:2" ht="13.5">
       <c r="A4" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
@@ -3815,52 +3852,52 @@
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>165</v>
-      </c>
-      <c r="B7" s="103" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="65"/>
-      <c r="B8" s="103" t="s">
-        <v>167</v>
+      <c r="B8" s="70" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="65"/>
-      <c r="B9" s="103" t="s">
-        <v>168</v>
+      <c r="B9" s="70" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="65"/>
-      <c r="B10" s="103" t="s">
-        <v>170</v>
+      <c r="B10" s="70" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="65"/>
-      <c r="B11" s="103" t="s">
-        <v>169</v>
+      <c r="B11" s="70" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="65"/>
-      <c r="B12" s="103" t="s">
-        <v>171</v>
+      <c r="B12" s="70" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="65"/>
-      <c r="B13" s="103" t="s">
-        <v>172</v>
+      <c r="B13" s="70" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="65"/>
-      <c r="B14" s="103" t="s">
-        <v>173</v>
+      <c r="B14" s="70" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
@@ -3880,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView showGridLines="0" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3902,13 +3939,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="100" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3916,9 +3953,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
@@ -4139,13 +4176,13 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="100" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -4162,20 +4199,20 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B24" s="98"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="101" t="s">
+      <c r="B24" s="101"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="G24" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="102" t="s">
-        <v>164</v>
+      <c r="H24" s="69" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" thickTop="1">
@@ -4427,8 +4464,8 @@
       <c r="G35" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>83</v>
+      <c r="H35" s="104" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="24">
@@ -4442,16 +4479,16 @@
         <v>55</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" customHeight="1">
@@ -4488,16 +4525,16 @@
         <v>61</v>
       </c>
       <c r="E38" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="34" t="s">
+      <c r="H38" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="21.75" customHeight="1">
@@ -4571,7 +4608,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="45" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="46"/>
       <c r="J1" s="47"/>
@@ -4581,7 +4618,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>34</v>
@@ -4596,7 +4633,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="48" t="s">
         <v>49</v>
@@ -4605,52 +4642,52 @@
         <v>52</v>
       </c>
       <c r="J2" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="48" t="s">
         <v>91</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>92</v>
       </c>
       <c r="L2" s="48" t="s">
         <v>60</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="D3" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="F3" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="G3" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="H3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="I3" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="J3" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="K3" s="50" t="s">
         <v>103</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>104</v>
       </c>
       <c r="L3" s="50" t="s">
         <v>61</v>
@@ -4658,179 +4695,179 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="D4" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="E4" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="J4" s="46" t="s">
         <v>111</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="D5" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="F5" s="46" t="s">
         <v>114</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>115</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="J5" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="46" t="s">
+      <c r="L5" s="46" t="s">
         <v>118</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="D6" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>121</v>
-      </c>
       <c r="F6" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="46" t="s">
         <v>118</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="F7" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="46" t="s">
+      <c r="J7" s="46" t="s">
         <v>126</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="D8" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="46" t="s">
+      <c r="L8" s="46" t="s">
         <v>130</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="D9" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="46" t="s">
+      <c r="L9" s="46" t="s">
         <v>130</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="B19" s="52"/>
       <c r="C19" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="B20" s="53"/>
       <c r="C20" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4857,7 +4894,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="52" t="s">
         <v>31</v>
@@ -4866,7 +4903,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="48" t="s">
         <v>40</v>
@@ -4878,7 +4915,7 @@
         <v>46</v>
       </c>
       <c r="J25" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="48" t="s">
         <v>49</v>
@@ -4890,159 +4927,159 @@
         <v>54</v>
       </c>
       <c r="N25" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O25" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P25" s="48" t="s">
         <v>60</v>
       </c>
       <c r="Q25" s="55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="D26" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="E26" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="F26" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="G26" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="H26" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="52" t="s">
+      <c r="O26" s="56" t="s">
         <v>103</v>
-      </c>
-      <c r="N26" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="O26" s="56" t="s">
-        <v>104</v>
       </c>
       <c r="P26" s="50" t="s">
         <v>61</v>
       </c>
       <c r="Q26" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="D27" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="E27" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="F27" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="G27" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="46" t="s">
+      <c r="I27" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="46" t="s">
+      <c r="N27" s="46" t="s">
         <v>151</v>
-      </c>
-      <c r="N27" s="46" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="G28" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="I28" s="46" t="s">
         <v>114</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>115</v>
       </c>
       <c r="J28" s="46"/>
       <c r="K28" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="L28" s="46" t="s">
-        <v>117</v>
-      </c>
       <c r="M28" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N28" s="46"/>
       <c r="O28" s="46"/>
       <c r="P28" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1">
       <c r="G29" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="46" t="s">
-        <v>121</v>
-      </c>
       <c r="I29" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="46"/>
       <c r="K29" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L29" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M29" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N29" s="46"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="49" customFormat="1" ht="12.75" customHeight="1">
@@ -5053,56 +5090,56 @@
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
       <c r="G30" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J30" s="46"/>
       <c r="K30" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L30" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N30" s="46"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q30" s="47"/>
       <c r="R30" s="47"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" customHeight="1">
       <c r="G31" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" s="46"/>
       <c r="K31" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L31" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M31" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
       <c r="P31" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="45" customFormat="1" ht="12.75" customHeight="1">

--- a/20 開発資料/05.改修管理/040_改修管理_SAP用CSV作成.xlsx
+++ b/20 開発資料/05.改修管理/040_改修管理_SAP用CSV作成.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="176">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1597,6 +1597,34 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>№1の出力対象期間を前月26日から当月25日に変更する</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2377,93 +2405,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2475,9 +2506,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3155,7 +3183,7 @@
   <dimension ref="A1:BG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9:AJ9"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -3165,246 +3193,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="91" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="88" t="s">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88" t="s">
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88" t="s">
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="88"/>
-      <c r="AT1" s="88"/>
-      <c r="AU1" s="88"/>
-      <c r="AV1" s="88"/>
-      <c r="AW1" s="88" t="s">
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="88"/>
-      <c r="AY1" s="88"/>
-      <c r="AZ1" s="88"/>
-      <c r="BA1" s="88"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="90">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="74">
         <v>41611</v>
       </c>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="88" t="s">
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="90"/>
-      <c r="AS2" s="90"/>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="88"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="88"/>
-      <c r="AZ3" s="88"/>
-      <c r="BA3" s="88"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -3431,68 +3459,68 @@
       <c r="A6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85" t="s">
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85" t="s">
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="85"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="85"/>
-      <c r="AW6" s="86" t="s">
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="84"/>
+      <c r="AV6" s="84"/>
+      <c r="AW6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AX6" s="86"/>
-      <c r="AY6" s="86"/>
-      <c r="AZ6" s="86"/>
-      <c r="BA6" s="87"/>
+      <c r="AX6" s="85"/>
+      <c r="AY6" s="85"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="86"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -3504,243 +3532,247 @@
       <c r="A7" s="61">
         <v>1</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="79" t="s">
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="80"/>
-      <c r="AX7" s="80"/>
-      <c r="AY7" s="80"/>
-      <c r="AZ7" s="80"/>
-      <c r="BA7" s="81"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="94"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="37.5" customHeight="1">
       <c r="A8" s="63">
         <v>2</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="82" t="s">
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="83"/>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="84"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="90"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A9" s="63">
         <v>3</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="82" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="71"/>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="71"/>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="71"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="72"/>
-      <c r="BA9" s="73"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="100"/>
     </row>
     <row r="10" spans="1:59" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="A10" s="64">
         <v>4</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="77"/>
+      <c r="B10" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="95"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="97"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="97"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="98"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1"/>
     <row r="12" spans="1:59" s="3" customFormat="1"/>
@@ -3751,6 +3783,31 @@
     <row r="17" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -3764,31 +3821,6 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -3939,13 +3971,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="101" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3953,9 +3985,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
@@ -4176,13 +4208,13 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="101" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -4199,9 +4231,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B24" s="101"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="68" t="s">
         <v>161</v>
       </c>
@@ -4464,7 +4496,7 @@
       <c r="G35" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="104" t="s">
+      <c r="H35" s="71" t="s">
         <v>173</v>
       </c>
     </row>
